--- a/market-admin/src/main/resources/excel/卡分类模板.xlsx
+++ b/market-admin/src/main/resources/excel/卡分类模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21730" windowHeight="10470"/>
+    <workbookView windowWidth="21730" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>卡属性编号</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>卡面名称</t>
+  </si>
+  <si>
+    <t>手机号</t>
   </si>
 </sst>
 </file>
@@ -1017,18 +1020,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="6" width="15.6363636363636" customWidth="1"/>
+    <col min="1" max="7" width="15.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,6 +1049,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
